--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_ToVanThuan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_ToVanThuan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Sim lỗi, hết hạn dịch vụ</t>
+  </si>
+  <si>
+    <t>28/01/2021</t>
+  </si>
+  <si>
+    <t>BT</t>
   </si>
 </sst>
 </file>
@@ -699,6 +705,36 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,36 +742,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1091,42 +1097,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="63"/>
@@ -1169,57 +1175,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1250,23 @@
       <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1269,7 +1275,9 @@
       <c r="B6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
       </c>
@@ -1297,7 +1305,9 @@
         <v>75</v>
       </c>
       <c r="N6" s="60"/>
-      <c r="O6" s="58"/>
+      <c r="O6" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P6" s="58" t="s">
         <v>76</v>
       </c>
@@ -1309,7 +1319,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1323,7 +1333,9 @@
       <c r="B7" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
@@ -1353,7 +1365,9 @@
         <v>39</v>
       </c>
       <c r="N7" s="3"/>
-      <c r="O7" s="58"/>
+      <c r="O7" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P7" s="58" t="s">
         <v>76</v>
       </c>
@@ -1365,7 +1379,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1377,7 +1391,9 @@
       <c r="B8" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="56" t="s">
         <v>45</v>
       </c>
@@ -1403,7 +1419,9 @@
         <v>75</v>
       </c>
       <c r="N8" s="60"/>
-      <c r="O8" s="58"/>
+      <c r="O8" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P8" s="58" t="s">
         <v>76</v>
       </c>
@@ -1415,7 +1433,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1445,9 @@
       <c r="B9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="55" t="s">
+        <v>79</v>
+      </c>
       <c r="D9" s="56" t="s">
         <v>45</v>
       </c>
@@ -1453,7 +1473,9 @@
         <v>75</v>
       </c>
       <c r="N9" s="60"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="58" t="s">
+        <v>80</v>
+      </c>
       <c r="P9" s="58" t="s">
         <v>76</v>
       </c>
@@ -1465,7 +1487,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1493,7 +1515,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1543,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1571,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1579,7 +1601,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1629,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1657,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1685,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2797,6 +2819,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2810,11 +2837,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2857,43 +2879,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2938,42 +2960,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="88" t="s">
@@ -2981,15 +3003,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3014,24 +3036,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="89"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3057,7 +3079,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3088,7 +3110,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3117,7 +3139,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3146,7 +3168,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3197,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3204,7 +3226,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3233,7 +3255,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="82" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3264,7 +3286,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3315,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3322,7 +3344,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3373,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5932,6 +5954,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -5942,16 +5974,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_ToVanThuan.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang1/02.XuLyBH/XLBH2101_ToVanThuan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang1\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -699,6 +699,36 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -706,36 +736,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1091,42 +1091,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
     </row>
     <row r="2" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="63"/>
@@ -1169,57 +1169,57 @@
       <c r="V3" s="32"/>
     </row>
     <row r="4" spans="1:22" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="81" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="31"/>
-      <c r="U4" s="75" t="s">
+      <c r="U4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1244,23 +1244,23 @@
       <c r="I5" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="84"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="31"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
     </row>
     <row r="6" spans="1:22" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1269,7 +1269,9 @@
       <c r="B6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="55">
+        <v>44224</v>
+      </c>
       <c r="D6" s="56" t="s">
         <v>45</v>
       </c>
@@ -1309,7 +1311,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="82" t="s">
         <v>19</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1323,7 +1325,9 @@
       <c r="B7" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="55">
+        <v>44224</v>
+      </c>
       <c r="D7" s="56" t="s">
         <v>45</v>
       </c>
@@ -1365,7 +1369,7 @@
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="73"/>
+      <c r="U7" s="83"/>
       <c r="V7" s="4" t="s">
         <v>36</v>
       </c>
@@ -1377,7 +1381,9 @@
       <c r="B8" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="55">
+        <v>44224</v>
+      </c>
       <c r="D8" s="56" t="s">
         <v>45</v>
       </c>
@@ -1415,7 +1421,7 @@
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="73"/>
+      <c r="U8" s="83"/>
       <c r="V8" s="4" t="s">
         <v>22</v>
       </c>
@@ -1427,7 +1433,9 @@
       <c r="B9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="55">
+        <v>44224</v>
+      </c>
       <c r="D9" s="56" t="s">
         <v>45</v>
       </c>
@@ -1465,7 +1473,7 @@
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="24"/>
-      <c r="U9" s="73"/>
+      <c r="U9" s="83"/>
       <c r="V9" s="4" t="s">
         <v>60</v>
       </c>
@@ -1493,7 +1501,7 @@
       <c r="R10" s="56"/>
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
-      <c r="U10" s="73"/>
+      <c r="U10" s="83"/>
       <c r="V10" s="4" t="s">
         <v>32</v>
       </c>
@@ -1521,7 +1529,7 @@
       <c r="R11" s="56"/>
       <c r="S11" s="4"/>
       <c r="T11" s="14"/>
-      <c r="U11" s="73"/>
+      <c r="U11" s="83"/>
       <c r="V11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1549,7 +1557,7 @@
       <c r="R12" s="56"/>
       <c r="S12" s="4"/>
       <c r="T12" s="14"/>
-      <c r="U12" s="72" t="s">
+      <c r="U12" s="82" t="s">
         <v>20</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1579,7 +1587,7 @@
       <c r="R13" s="11"/>
       <c r="S13" s="4"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="73"/>
+      <c r="U13" s="83"/>
       <c r="V13" s="4" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1615,7 @@
       <c r="R14" s="56"/>
       <c r="S14" s="4"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="73"/>
+      <c r="U14" s="83"/>
       <c r="V14" s="4" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1643,7 @@
       <c r="R15" s="56"/>
       <c r="S15" s="4"/>
       <c r="T15" s="17"/>
-      <c r="U15" s="73"/>
+      <c r="U15" s="83"/>
       <c r="V15" s="4" t="s">
         <v>25</v>
       </c>
@@ -1663,7 +1671,7 @@
       <c r="R16" s="56"/>
       <c r="S16" s="4"/>
       <c r="T16" s="17"/>
-      <c r="U16" s="74"/>
+      <c r="U16" s="84"/>
       <c r="V16" s="4" t="s">
         <v>26</v>
       </c>
@@ -2797,6 +2805,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
@@ -2810,11 +2823,6 @@
     <mergeCell ref="B4:I4"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2857,43 +2865,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="6"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2938,42 +2946,42 @@
       <c r="W3" s="32"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="75" t="s">
+      <c r="K4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="O4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="Q4" s="75" t="s">
+      <c r="Q4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="75" t="s">
+      <c r="R4" s="72" t="s">
         <v>62</v>
       </c>
       <c r="S4" s="88" t="s">
@@ -2981,15 +2989,15 @@
       </c>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
-      <c r="V4" s="75" t="s">
+      <c r="V4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="W4" s="75" t="s">
+      <c r="W4" s="72" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -3014,24 +3022,24 @@
       <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="75"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="89"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
     </row>
     <row r="6" spans="1:23" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3057,7 +3065,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="31"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="72" t="s">
+      <c r="V6" s="82" t="s">
         <v>19</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -3088,7 +3096,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="31"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="73"/>
+      <c r="V7" s="83"/>
       <c r="W7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3117,7 +3125,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="31"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="73"/>
+      <c r="V8" s="83"/>
       <c r="W8" s="4" t="s">
         <v>22</v>
       </c>
@@ -3146,7 +3154,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="73"/>
+      <c r="V9" s="83"/>
       <c r="W9" s="4" t="s">
         <v>60</v>
       </c>
@@ -3175,7 +3183,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="73"/>
+      <c r="V10" s="83"/>
       <c r="W10" s="4" t="s">
         <v>32</v>
       </c>
@@ -3204,7 +3212,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="73"/>
+      <c r="V11" s="83"/>
       <c r="W11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3233,7 +3241,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="72" t="s">
+      <c r="V12" s="82" t="s">
         <v>20</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -3264,7 +3272,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="73"/>
+      <c r="V13" s="83"/>
       <c r="W13" s="4" t="s">
         <v>38</v>
       </c>
@@ -3293,7 +3301,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="73"/>
+      <c r="V14" s="83"/>
       <c r="W14" s="4" t="s">
         <v>37</v>
       </c>
@@ -3322,7 +3330,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="33"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="73"/>
+      <c r="V15" s="83"/>
       <c r="W15" s="4" t="s">
         <v>25</v>
       </c>
@@ -3351,7 +3359,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="33"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="74"/>
+      <c r="V16" s="84"/>
       <c r="W16" s="4" t="s">
         <v>26</v>
       </c>
@@ -5932,6 +5940,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -5942,16 +5960,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
